--- a/Assets/ExcelResolver/Excel/hero.xlsx
+++ b/Assets/ExcelResolver/Excel/hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25800" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,45 +29,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+  <si>
+    <t>##UnionMultiKeyTable|id,name|</t>
+  </si>
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>sprite</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
   <si>
     <t>##</t>
-  </si>
-  <si>
-    <t>##var</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>sprite</t>
-  </si>
-  <si>
-    <t>float</t>
   </si>
   <si>
     <t>英雄</t>
@@ -1028,10 +1031,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1086,25 +1092,25 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1112,10 +1118,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -1132,10 +1138,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>150</v>

--- a/Assets/ExcelResolver/Excel/hero.xlsx
+++ b/Assets/ExcelResolver/Excel/hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="24015" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
-  <si>
-    <t>##UnionMultiKeyTable|id,name|</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+  <si>
+    <t>##SingleKeyTable|id|</t>
   </si>
   <si>
     <t>##var</t>
@@ -55,6 +55,18 @@
     <t>speed</t>
   </si>
   <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>boxpos</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -70,7 +82,19 @@
     <t>float</t>
   </si>
   <si>
-    <t>##</t>
+    <t>Vector3</t>
+  </si>
+  <si>
+    <t>List&lt;Vector2&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;List&lt;float&gt;&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;List&lt;Vector2&gt;&gt;</t>
+  </si>
+  <si>
+    <t>##info</t>
   </si>
   <si>
     <t>英雄</t>
@@ -88,16 +112,64 @@
     <t>移速</t>
   </si>
   <si>
+    <t>出生点</t>
+  </si>
+  <si>
+    <t>大小</t>
+  </si>
+  <si>
+    <t>宝箱奖励</t>
+  </si>
+  <si>
+    <t>宝箱位置</t>
+  </si>
+  <si>
+    <t>##des</t>
+  </si>
+  <si>
+    <t>设置宝箱的位置</t>
+  </si>
+  <si>
+    <t>##path</t>
+  </si>
+  <si>
+    <t>Assets/ExcelResolver/Excel/{0}.xlsx</t>
+  </si>
+  <si>
     <t>道士</t>
   </si>
   <si>
     <t>hero_1</t>
   </si>
   <si>
+    <t>[0,1,0]</t>
+  </si>
+  <si>
+    <t>[1,1];[0.5,0.5]</t>
+  </si>
+  <si>
+    <t>1,400;3,10;4,10</t>
+  </si>
+  <si>
+    <t>[1,2];[2,3];[4,5]</t>
+  </si>
+  <si>
     <t>战士</t>
   </si>
   <si>
     <t>hero_2</t>
+  </si>
+  <si>
+    <t>[1,0,0]</t>
+  </si>
+  <si>
+    <t>[2,2]</t>
+  </si>
+  <si>
+    <t>1,600;3,10;4,10</t>
+  </si>
+  <si>
+    <t>[2,3]</t>
   </si>
 </sst>
 </file>
@@ -110,7 +182,21 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,12 +349,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -583,138 +675,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,129 +1126,216 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="10" max="10" width="22.5" customWidth="1"/>
+    <col min="11" max="11" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>1.2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>150</v>
+      </c>
+      <c r="F8">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5">
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>150</v>
-      </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelResolver/Excel/hero.xlsx
+++ b/Assets/ExcelResolver/Excel/hero.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>##SingleKeyTable|id|</t>
   </si>
@@ -55,18 +55,6 @@
     <t>speed</t>
   </si>
   <si>
-    <t>pos</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>boxpos</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -76,24 +64,9 @@
     <t>string</t>
   </si>
   <si>
-    <t>sprite</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
-    <t>Vector3</t>
-  </si>
-  <si>
-    <t>List&lt;Vector2&gt;</t>
-  </si>
-  <si>
-    <t>List&lt;List&lt;float&gt;&gt;</t>
-  </si>
-  <si>
-    <t>List&lt;List&lt;Vector2&gt;&gt;</t>
-  </si>
-  <si>
     <t>##info</t>
   </si>
   <si>
@@ -112,24 +85,9 @@
     <t>移速</t>
   </si>
   <si>
-    <t>出生点</t>
-  </si>
-  <si>
-    <t>大小</t>
-  </si>
-  <si>
-    <t>宝箱奖励</t>
-  </si>
-  <si>
-    <t>宝箱位置</t>
-  </si>
-  <si>
     <t>##des</t>
   </si>
   <si>
-    <t>设置宝箱的位置</t>
-  </si>
-  <si>
     <t>##path</t>
   </si>
   <si>
@@ -142,34 +100,10 @@
     <t>hero_1</t>
   </si>
   <si>
-    <t>[0,1,0]</t>
-  </si>
-  <si>
-    <t>[1,1];[0.5,0.5]</t>
-  </si>
-  <si>
-    <t>1,400;3,10;4,10</t>
-  </si>
-  <si>
-    <t>[1,2];[2,3];[4,5]</t>
-  </si>
-  <si>
     <t>战士</t>
   </si>
   <si>
     <t>hero_2</t>
-  </si>
-  <si>
-    <t>[1,0,0]</t>
-  </si>
-  <si>
-    <t>[2,2]</t>
-  </si>
-  <si>
-    <t>1,600;3,10;4,10</t>
-  </si>
-  <si>
-    <t>[2,3]</t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1060,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1147,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1169,120 +1103,75 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="1" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:11">
+    <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -1293,28 +1182,16 @@
       <c r="G7">
         <v>1.2</v>
       </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:10">
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>150</v>
@@ -1325,18 +1202,9 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ExcelResolver/Excel/hero.xlsx
+++ b/Assets/ExcelResolver/Excel/hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24015" windowHeight="9270"/>
+    <workbookView windowWidth="31290" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>##SingleKeyTable|id|</t>
   </si>
@@ -49,6 +49,9 @@
     <t>hp</t>
   </si>
   <si>
+    <t>##</t>
+  </si>
+  <si>
     <t>atk</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>hero_2</t>
+  </si>
+  <si>
+    <t>是的</t>
   </si>
 </sst>
 </file>
@@ -116,7 +122,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,13 +133,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -609,133 +608,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -746,7 +745,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,14 +1062,13 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="19.25" customWidth="1"/>
     <col min="10" max="10" width="22.5" customWidth="1"/>
     <col min="11" max="11" width="29.375" customWidth="1"/>
@@ -1081,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1103,83 +1101,87 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="F7">
+      <c r="F7"/>
+      <c r="G7">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.2</v>
       </c>
     </row>
@@ -1188,21 +1190,23 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>150</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8">
         <v>15</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="H8"/>
       <c r="I8"/>
       <c r="J8" s="2"/>
     </row>

--- a/Assets/ExcelResolver/Excel/hero.xlsx
+++ b/Assets/ExcelResolver/Excel/hero.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>##SingleKeyTable|id|</t>
   </si>
@@ -58,6 +58,12 @@
     <t>speed</t>
   </si>
   <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>ches</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -70,6 +76,12 @@
     <t>float</t>
   </si>
   <si>
+    <t>Vector3</t>
+  </si>
+  <si>
+    <t>vector2</t>
+  </si>
+  <si>
     <t>##info</t>
   </si>
   <si>
@@ -88,6 +100,9 @@
     <t>移速</t>
   </si>
   <si>
+    <t>位置</t>
+  </si>
+  <si>
     <t>##des</t>
   </si>
   <si>
@@ -103,6 +118,12 @@
     <t>hero_1</t>
   </si>
   <si>
+    <t>(0,1,4)</t>
+  </si>
+  <si>
+    <t>(0,1)</t>
+  </si>
+  <si>
     <t>战士</t>
   </si>
   <si>
@@ -110,6 +131,12 @@
   </si>
   <si>
     <t>是的</t>
+  </si>
+  <si>
+    <t>(-5,1,5)</t>
+  </si>
+  <si>
+    <t>(-5,1)</t>
   </si>
 </sst>
 </file>
@@ -738,14 +765,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,7 +1086,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1079,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1104,75 +1128,93 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+    <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:10">
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -1183,6 +1225,12 @@
       </c>
       <c r="H7">
         <v>1.2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -1190,16 +1238,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -1207,8 +1255,12 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8"/>
-      <c r="J8" s="2"/>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ExcelResolver/Excel/hero.xlsx
+++ b/Assets/ExcelResolver/Excel/hero.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>##SingleKeyTable|id|</t>
   </si>
@@ -137,6 +137,21 @@
   </si>
   <si>
     <t>(-5,1)</t>
+  </si>
+  <si>
+    <t>女巫</t>
+  </si>
+  <si>
+    <t>hero_3</t>
+  </si>
+  <si>
+    <t>错误的</t>
+  </si>
+  <si>
+    <t>(3,2,4)</t>
+  </si>
+  <si>
+    <t>(5,12)</t>
   </si>
 </sst>
 </file>
@@ -1083,13 +1098,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -1260,6 +1275,35 @@
       </c>
       <c r="J8" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:10">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>1.1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelResolver/Excel/hero.xlsx
+++ b/Assets/ExcelResolver/Excel/hero.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>##SingleKeyTable|id|</t>
   </si>
@@ -46,6 +46,9 @@
     <t>icon</t>
   </si>
   <si>
+    <t>has</t>
+  </si>
+  <si>
     <t>hp</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
   </si>
   <si>
     <t>名称</t>
+  </si>
+  <si>
+    <t>有宠物</t>
   </si>
   <si>
     <t>血量</t>
@@ -1098,19 +1107,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="9" max="9" width="19.25" customWidth="1"/>
-    <col min="10" max="10" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="29.375" customWidth="1"/>
+    <col min="10" max="10" width="19.25" customWidth="1"/>
+    <col min="11" max="11" width="22.5" customWidth="1"/>
+    <col min="12" max="12" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
@@ -1118,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1149,161 +1158,179 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
+    <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:11">
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="F7"/>
-      <c r="G7">
+      <c r="G7"/>
+      <c r="H7">
         <v>20</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.2</v>
       </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:11">
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>150</v>
       </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
         <v>15</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="2:10">
+    <row r="9" customFormat="1" spans="2:11">
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>80</v>
       </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.1</v>
       </c>
-      <c r="I9" t="s">
-        <v>39</v>
-      </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
